--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="1" r:id="rId1"/>
     <sheet name="May 2021" sheetId="4" r:id="rId2"/>
+    <sheet name="03|20-21" sheetId="5" r:id="rId3"/>
+    <sheet name="03|20-21 (2)" sheetId="6" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -83,22 +85,49 @@
     <t>Works at : 24 Gyani Border, Sahibabad, Ghaziabad, U.P.</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice No :- 01/21-22 Date          :- 01.05.2021          </t>
-  </si>
-  <si>
     <t>Labour Charges for blending &amp; Packaging for the</t>
   </si>
   <si>
     <t>month of April 2021</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 0.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice No :- 02/21-22 Date          :- 01.06.2021          </t>
-  </si>
-  <si>
     <t>month of May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 03/20-21 Date          :- 18.06.2021          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packeting &amp; Blending charges for the month of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 01/21-22 Date          :- 30.04.2021          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 02/21-22 Date          :- 31.05.2021          </t>
+  </si>
+  <si>
+    <t>April 2020 to March 2021 (Difference Rate)</t>
+  </si>
+  <si>
+    <t>(Lockdown Period)</t>
+  </si>
+  <si>
+    <t>(Guaranteed Quantity 85000 Kgs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packeting &amp; Blending charges </t>
+  </si>
+  <si>
+    <t>for the month of April 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 04/20-21 Date          :- 18.06.2021          </t>
   </si>
 </sst>
 </file>
@@ -363,7 +392,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -448,6 +477,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,6 +518,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -797,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,35 +862,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -885,8 +935,8 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="55" t="s">
-        <v>21</v>
+      <c r="E9" s="57" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -896,7 +946,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -905,7 +955,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="57"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -943,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -952,17 +1002,17 @@
     <row r="16" spans="1:5">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="28">
         <v>128662</v>
       </c>
       <c r="D16" s="29">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="E16" s="30">
         <f>C16*D16</f>
-        <v>283056.40000000002</v>
+        <v>334521.2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1012,7 +1062,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="37">
         <f>E16</f>
-        <v>283056.40000000002</v>
+        <v>334521.2</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -1078,7 +1128,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="42">
         <f>E27+E26+E25+E22</f>
-        <v>283056</v>
+        <v>334521</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1094,7 +1144,7 @@
       </c>
       <c r="B32" s="5" t="str">
         <f>[1]!rswords(E30)</f>
-        <v>Rupees Two Lakh(s) Eighty Three Thousand Fifty Six Only</v>
+        <v>Rupees Three Lakh(s) Thirty Four Thousand Five Hundred Twenty One Only</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1111,10 +1161,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="59"/>
+      <c r="E34" s="61"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1131,13 +1181,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1179,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1194,35 +1244,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1267,8 +1317,8 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="55" t="s">
-        <v>25</v>
+      <c r="E9" s="57" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -1278,7 +1328,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1287,7 +1337,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="57"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1325,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -1334,17 +1384,17 @@
     <row r="16" spans="1:5">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="28">
         <v>90826</v>
       </c>
       <c r="D16" s="29">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="E16" s="30">
         <f>C16*D16</f>
-        <v>263395.39999999997</v>
+        <v>236147.6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1394,7 +1444,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="37">
         <f>E16</f>
-        <v>263395.39999999997</v>
+        <v>236147.6</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -1434,7 +1484,7 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1460,7 +1510,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="42">
         <f>E27+E26+E25+E22</f>
-        <v>263394.99999999994</v>
+        <v>236148</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1476,7 +1526,7 @@
       </c>
       <c r="B32" s="5" t="str">
         <f>[1]!rswords(E30)</f>
-        <v>Rupees Two Lakh(s) Sixty Three Thousand Three Hundred Ninety Five Only</v>
+        <v>Rupees Two Lakh(s) Thirty Six Thousand One Hundred Forty Eight Only</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1493,10 +1543,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="59"/>
+      <c r="E34" s="61"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1513,13 +1563,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1555,4 +1605,776 @@
   <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" spans="1:5" ht="46.5">
+      <c r="A3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="63">
+        <v>1</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="28">
+        <v>1492665</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="30">
+        <f>C16*D16</f>
+        <v>597066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="32"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="36">
+        <f>C16</f>
+        <v>1492665</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="37">
+        <f>E16</f>
+        <v>597066</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42">
+        <f>E27+E26+E25+E22</f>
+        <v>597066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>[1]!rswords(E30)</f>
+        <v>Rupees Five Lakh(s) Ninety Seven Thousand Sixty Six Only</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="61"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" spans="1:5" ht="46.5">
+      <c r="A3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="63">
+        <v>1</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="28">
+        <v>85000</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="E16" s="30">
+        <f>C16*D16</f>
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="32"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27"/>
+      <c r="B20" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="36">
+        <f>C16</f>
+        <v>85000</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="37">
+        <f>E16</f>
+        <v>221000</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42">
+        <f>E27+E26+E25+E22</f>
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>[1]!rswords(E30)</f>
+        <v>Rupees Two Lakh(s) Twenty One Thousand Only</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="61"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="1" r:id="rId1"/>
     <sheet name="May 2021" sheetId="4" r:id="rId2"/>
-    <sheet name="03|20-21" sheetId="5" r:id="rId3"/>
-    <sheet name="03|20-21 (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="June 2021" sheetId="7" r:id="rId3"/>
+    <sheet name="03|20-21" sheetId="5" r:id="rId4"/>
+    <sheet name="03|20-21 (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -128,6 +129,18 @@
   </si>
   <si>
     <t xml:space="preserve">Invoice No :- 04/20-21 Date          :- 18.06.2021          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 03/21-22 Date          :- 30.06.2021          </t>
+  </si>
+  <si>
+    <t>for the month of June 2021</t>
+  </si>
+  <si>
+    <t>Labour Charges for blending &amp; Packaging</t>
+  </si>
+  <si>
+    <t>+ 0.2</t>
   </si>
 </sst>
 </file>
@@ -392,7 +405,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -483,6 +496,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,20 +547,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -862,35 +890,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -935,7 +963,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="62" t="s">
         <v>28</v>
       </c>
     </row>
@@ -946,7 +974,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -955,7 +983,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="59"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1161,10 +1189,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="66"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1181,13 +1209,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1244,35 +1272,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1317,7 +1345,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="62" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1328,7 +1356,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1337,7 +1365,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="59"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1543,10 +1571,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="66"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1563,13 +1591,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1611,6 +1639,390 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+    </row>
+    <row r="3" spans="1:5" ht="46.5">
+      <c r="A3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="63"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="53"/>
+      <c r="B15" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="52">
+        <v>1</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="28">
+        <v>106818</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="E16" s="30">
+        <f>C16*D16</f>
+        <v>277726.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="52"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="36">
+        <f>C16</f>
+        <v>106818</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="37">
+        <f>E16</f>
+        <v>277726.8</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42">
+        <f>E27+E26+E25+E22</f>
+        <v>277727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>[1]!rswords(E30)</f>
+        <v>Rupees Two Lakh(s) Seventy Seven Thousand Seven Hundred Twenty Seven Only</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="66"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -1626,35 +2038,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1699,7 +2111,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="62" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1710,7 +2122,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1719,7 +2131,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="59"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1753,10 +2165,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="63">
+      <c r="A15" s="67">
         <v>1</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="25"/>
@@ -1764,8 +2176,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="28">
         <v>1492665</v>
       </c>
@@ -1779,7 +2191,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="69" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="27"/>
@@ -1788,7 +2200,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32"/>
-      <c r="B18" s="64"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -1925,10 +2337,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="66"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1945,13 +2357,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1992,11 +2404,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2011,35 +2423,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -2084,7 +2496,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="62" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2095,7 +2507,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2104,7 +2516,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="59"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2138,10 +2550,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="63">
+      <c r="A15" s="67">
         <v>1</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="67" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="25"/>
@@ -2149,8 +2561,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="28">
         <v>85000</v>
       </c>
@@ -2164,7 +2576,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="70" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="27"/>
@@ -2173,7 +2585,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32"/>
-      <c r="B18" s="66"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -2189,7 +2601,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="27"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="54" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="27"/>
@@ -2312,10 +2724,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="66"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -2332,13 +2744,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>

--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="June 2021" sheetId="7" r:id="rId3"/>
     <sheet name="03|20-21" sheetId="5" r:id="rId4"/>
     <sheet name="03|20-21 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="03|20-21 (3)" sheetId="9" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -128,9 +129,6 @@
     <t>for the month of April 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice No :- 04/20-21 Date          :- 18.06.2021          </t>
-  </si>
-  <si>
     <t xml:space="preserve">Invoice No :- 03/21-22 Date          :- 30.06.2021          </t>
   </si>
   <si>
@@ -141,6 +139,18 @@
   </si>
   <si>
     <t>+ 0.2</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>April 2020 to March 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 04/20-21                     Date :- 18.06.2021          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- RP 01/21-22                    Date :- 18.06.2021          </t>
   </si>
 </sst>
 </file>
@@ -405,7 +415,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -511,6 +521,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,14 +572,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,9 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -890,35 +925,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -963,7 +998,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="65" t="s">
         <v>28</v>
       </c>
     </row>
@@ -974,7 +1009,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -983,7 +1018,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1189,10 +1224,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1209,13 +1244,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1258,7 +1293,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1272,35 +1307,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1345,7 +1380,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="65" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1356,7 +1391,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1365,7 +1400,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1571,10 +1606,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1591,13 +1626,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1639,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1654,35 +1689,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1727,8 +1762,8 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
-        <v>36</v>
+      <c r="E9" s="65" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -1738,7 +1773,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1747,7 +1782,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1782,8 +1817,8 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="53"/>
-      <c r="B15" s="67" t="s">
-        <v>38</v>
+      <c r="B15" s="70" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -1793,7 +1828,7 @@
       <c r="A16" s="52">
         <v>1</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="28">
         <v>106818</v>
       </c>
@@ -1807,8 +1842,8 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="71" t="s">
-        <v>37</v>
+      <c r="B17" s="72" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -1816,7 +1851,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="52"/>
-      <c r="B18" s="71"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -1894,7 +1929,7 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1953,10 +1988,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1973,13 +2008,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2024,7 +2059,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2038,35 +2073,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -2111,7 +2146,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="65" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2122,7 +2157,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2131,7 +2166,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2165,10 +2200,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="67">
+      <c r="A15" s="70">
         <v>1</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="25"/>
@@ -2176,8 +2211,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="28">
         <v>1492665</v>
       </c>
@@ -2191,7 +2226,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="73" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="27"/>
@@ -2200,7 +2235,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32"/>
-      <c r="B18" s="69"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -2337,10 +2372,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -2357,13 +2392,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2408,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2423,35 +2458,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -2489,16 +2524,16 @@
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
-        <v>35</v>
-      </c>
+      <c r="D9" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="14" t="s">
@@ -2506,8 +2541,8 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="76"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2515,8 +2550,8 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="77"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2550,10 +2585,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="67">
+      <c r="A15" s="70">
         <v>1</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="70" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="25"/>
@@ -2561,8 +2596,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="28">
         <v>85000</v>
       </c>
@@ -2576,7 +2611,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="74" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="27"/>
@@ -2585,7 +2620,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32"/>
-      <c r="B18" s="70"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -2724,10 +2759,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -2744,13 +2779,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2782,9 +2817,394 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="E9:E11"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D9:E11"/>
+  </mergeCells>
+  <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="1:5" ht="46.5">
+      <c r="A3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="75"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="76"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="77"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="70">
+        <v>1</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="28">
+        <v>1492665</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="30">
+        <f>C16*D16</f>
+        <v>746332.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="57"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="36">
+        <f>C16</f>
+        <v>1492665</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="37">
+        <f>E16</f>
+        <v>746332.5</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42">
+        <f>E27+E26+E25+E22</f>
+        <v>746333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>[1]!rswords(E30)</f>
+        <v>Rupees Seven Lakh(s) Forty Six Thousand Three Hundred Thirty Three Only</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="69"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D9:E11"/>
   </mergeCells>
   <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -581,22 +581,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2530,10 +2530,10 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="14" t="s">
@@ -2541,8 +2541,8 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2550,8 +2550,8 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2917,10 +2917,10 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="75"/>
+      <c r="E9" s="76"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="14" t="s">
@@ -2928,8 +2928,8 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2937,8 +2937,8 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>

--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,18 @@
     <sheet name="June 2021" sheetId="7" r:id="rId3"/>
     <sheet name="03|20-21" sheetId="5" r:id="rId4"/>
     <sheet name="03|20-21 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="03|20-21 (3)" sheetId="9" r:id="rId6"/>
+    <sheet name="September 2021" sheetId="10" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -128,9 +130,6 @@
     <t>for the month of April 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice No :- 04/20-21 Date          :- 18.06.2021          </t>
-  </si>
-  <si>
     <t xml:space="preserve">Invoice No :- 03/21-22 Date          :- 30.06.2021          </t>
   </si>
   <si>
@@ -141,6 +140,24 @@
   </si>
   <si>
     <t>+ 0.2</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>April 2020 to March 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 04/20-21                     Date :- 18.06.2021          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- RP 01/21-22                    Date :- 18.06.2021          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 06/21-22 Date          :- 30.09.2021          </t>
+  </si>
+  <si>
+    <t>for the month of September 2021</t>
   </si>
 </sst>
 </file>
@@ -405,7 +422,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -511,6 +528,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,14 +591,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,9 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -890,35 +944,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -963,7 +1017,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="69" t="s">
         <v>28</v>
       </c>
     </row>
@@ -974,7 +1028,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -983,7 +1037,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1189,10 +1243,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1209,13 +1263,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1258,7 +1312,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1272,35 +1326,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1345,7 +1399,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="69" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1356,7 +1410,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1365,7 +1419,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1571,10 +1625,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1591,13 +1645,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1639,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1654,35 +1708,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1727,8 +1781,8 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
-        <v>36</v>
+      <c r="E9" s="69" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -1738,7 +1792,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1747,7 +1801,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1782,8 +1836,8 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="53"/>
-      <c r="B15" s="67" t="s">
-        <v>38</v>
+      <c r="B15" s="74" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -1793,7 +1847,7 @@
       <c r="A16" s="52">
         <v>1</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="28">
         <v>106818</v>
       </c>
@@ -1807,8 +1861,8 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="71" t="s">
-        <v>37</v>
+      <c r="B17" s="76" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -1816,7 +1870,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="52"/>
-      <c r="B18" s="71"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -1894,7 +1948,7 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1953,10 +2007,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1973,13 +2027,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2024,7 +2078,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2038,35 +2092,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -2111,7 +2165,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2122,7 +2176,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2131,7 +2185,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2165,10 +2219,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="67">
+      <c r="A15" s="74">
         <v>1</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="74" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="25"/>
@@ -2176,8 +2230,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="28">
         <v>1492665</v>
       </c>
@@ -2191,7 +2245,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="77" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="27"/>
@@ -2200,7 +2254,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32"/>
-      <c r="B18" s="69"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -2337,10 +2391,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -2357,13 +2411,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2408,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2423,35 +2477,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -2489,16 +2543,16 @@
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="62" t="s">
-        <v>35</v>
-      </c>
+      <c r="D9" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="14" t="s">
@@ -2506,8 +2560,8 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2515,8 +2569,8 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2550,10 +2604,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="67">
+      <c r="A15" s="74">
         <v>1</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="74" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="25"/>
@@ -2561,8 +2615,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="28">
         <v>85000</v>
       </c>
@@ -2576,7 +2630,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="78" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="27"/>
@@ -2585,7 +2639,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32"/>
-      <c r="B18" s="70"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -2724,10 +2778,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="66"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -2744,13 +2798,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2782,8 +2836,777 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D9:E11"/>
+  </mergeCells>
+  <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+    </row>
+    <row r="3" spans="1:5" ht="46.5">
+      <c r="A3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="80"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="74">
+        <v>1</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="28">
+        <v>1492665</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="30">
+        <f>C16*D16</f>
+        <v>746332.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="57"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="36">
+        <f>C16</f>
+        <v>1492665</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="37">
+        <f>E16</f>
+        <v>746332.5</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42">
+        <f>E27+E26+E25+E22</f>
+        <v>746333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>[1]!rswords(E30)</f>
+        <v>Rupees Seven Lakh(s) Forty Six Thousand Three Hundred Thirty Three Only</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="73"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D9:E11"/>
+  </mergeCells>
+  <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+    </row>
+    <row r="3" spans="1:5" ht="46.5">
+      <c r="A3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="70"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="71"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="60"/>
+      <c r="B15" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="61">
+        <v>1</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="28">
+        <v>126002</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="E16" s="30">
+        <f>C16*D16</f>
+        <v>327605.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="61"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="36">
+        <f>C16</f>
+        <v>126002</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="37">
+        <f>E16</f>
+        <v>327605.2</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42">
+        <f>E27+E26+E25+E22</f>
+        <v>327605.40000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>[1]!rswords(E30)</f>
+        <v>Rupees Three Lakh(s) Twenty Seven Thousand Six Hundred Five And Paise Forty Only</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="73"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -3234,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3488,8 +3488,8 @@
         <v>16</v>
       </c>
       <c r="D27" s="27"/>
-      <c r="E27" s="47" t="s">
-        <v>38</v>
+      <c r="E27" s="47">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3515,7 +3515,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="42">
         <f>E27+E26+E25+E22</f>
-        <v>327605.40000000002</v>
+        <v>327605</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B32" s="5" t="str">
         <f>[1]!rswords(E30)</f>
-        <v>Rupees Three Lakh(s) Twenty Seven Thousand Six Hundred Five And Paise Forty Only</v>
+        <v>Rupees Three Lakh(s) Twenty Seven Thousand Six Hundred Five Only</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>

--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="03|20-21" sheetId="5" r:id="rId4"/>
     <sheet name="03|20-21 (2)" sheetId="6" r:id="rId5"/>
     <sheet name="03|20-21 (3)" sheetId="9" r:id="rId6"/>
+    <sheet name="September 2021" sheetId="10" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
   <si>
     <t>TAX INVOICE</t>
   </si>
@@ -151,6 +152,12 @@
   </si>
   <si>
     <t xml:space="preserve">Invoice No :- RP 01/21-22                    Date :- 18.06.2021          </t>
+  </si>
+  <si>
+    <t>for the month of September 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 06/21-22 Date          :- 01.10.2021          </t>
   </si>
 </sst>
 </file>
@@ -415,7 +422,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -525,6 +532,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -925,35 +944,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -998,7 +1017,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="69" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1009,7 +1028,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1018,7 +1037,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1224,10 +1243,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1244,13 +1263,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1307,35 +1326,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1380,7 +1399,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="69" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1391,7 +1410,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1400,7 +1419,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1606,10 +1625,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -1626,13 +1645,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -1689,35 +1708,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -1762,7 +1781,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="69" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1773,7 +1792,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -1782,7 +1801,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -1817,7 +1836,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="53"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="25"/>
@@ -1828,7 +1847,7 @@
       <c r="A16" s="52">
         <v>1</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="28">
         <v>106818</v>
       </c>
@@ -1842,7 +1861,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="76" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="27"/>
@@ -1851,7 +1870,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="52"/>
-      <c r="B18" s="72"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -1988,10 +2007,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -2008,13 +2027,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2073,35 +2092,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -2146,7 +2165,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="69" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2157,7 +2176,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="66"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2166,7 +2185,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2200,10 +2219,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="70">
+      <c r="A15" s="74">
         <v>1</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="25"/>
@@ -2211,8 +2230,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="28">
         <v>1492665</v>
       </c>
@@ -2226,7 +2245,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="77" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="27"/>
@@ -2235,7 +2254,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32"/>
-      <c r="B18" s="73"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -2372,10 +2391,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -2392,13 +2411,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2458,35 +2477,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -2530,10 +2549,10 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="76"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="14" t="s">
@@ -2541,8 +2560,8 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2550,8 +2569,8 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2585,10 +2604,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="70">
+      <c r="A15" s="74">
         <v>1</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="25"/>
@@ -2596,8 +2615,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="28">
         <v>85000</v>
       </c>
@@ -2611,7 +2630,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="78" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="27"/>
@@ -2620,7 +2639,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="32"/>
-      <c r="B18" s="74"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -2759,10 +2778,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -2779,13 +2798,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -2830,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2845,35 +2864,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:5" ht="46.5">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
@@ -2917,10 +2936,10 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="76"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="14" t="s">
@@ -2928,8 +2947,8 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="17" t="s">
@@ -2937,8 +2956,8 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
@@ -2972,10 +2991,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="70">
+      <c r="A15" s="74">
         <v>1</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="25"/>
@@ -2983,8 +3002,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="28">
         <v>1492665</v>
       </c>
@@ -2998,7 +3017,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="77" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="27"/>
@@ -3007,7 +3026,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="57"/>
-      <c r="B18" s="73"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="33"/>
@@ -3144,10 +3163,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="73"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20"/>
@@ -3164,13 +3183,13 @@
       <c r="E36" s="45"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="46"/>
@@ -3209,4 +3228,388 @@
   <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+    </row>
+    <row r="3" spans="1:5" ht="46.5">
+      <c r="A3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A4" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="70"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="71"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="60"/>
+      <c r="B15" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="61">
+        <v>1</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="28">
+        <v>126002</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="E16" s="30">
+        <f>C16*D16</f>
+        <v>327605.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="61"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="36">
+        <f>C16</f>
+        <v>126002</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="37">
+        <f>E16</f>
+        <v>327605.2</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="47">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42">
+        <f>E27+E26+E25+E22</f>
+        <v>327605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>[1]!rswords(E30)</f>
+        <v>Rupees Three Lakh(s) Twenty Seven Thousand Six Hundred Five Only</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="73"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A37" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <pageMargins left="0.36" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -3234,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/BILLING INVOICE  2021-22.xlsx
+++ b/BILLING INVOICE  2021-22.xlsx
@@ -154,10 +154,10 @@
     <t xml:space="preserve">Invoice No :- RP 01/21-22                    Date :- 18.06.2021          </t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice No :- 06/21-22 Date          :- 30.09.2021          </t>
-  </si>
-  <si>
-    <t>for the month of September 2021</t>
+    <t>for the month of November 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice No :- 08/21-22 Date          :- 01.11.2021          </t>
   </si>
 </sst>
 </file>
@@ -2849,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3234,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3323,7 +3323,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
@@ -3390,20 +3390,20 @@
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="28">
-        <v>126002</v>
+        <v>131536</v>
       </c>
       <c r="D16" s="29">
         <v>2.6</v>
       </c>
       <c r="E16" s="30">
         <f>C16*D16</f>
-        <v>327605.2</v>
+        <v>341993.60000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="27"/>
       <c r="B17" s="76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -3444,12 +3444,12 @@
       <c r="B22" s="27"/>
       <c r="C22" s="36">
         <f>C16</f>
-        <v>126002</v>
+        <v>131536</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="37">
         <f>E16</f>
-        <v>327605.2</v>
+        <v>341993.60000000003</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="47">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3515,7 +3515,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="42">
         <f>E27+E26+E25+E22</f>
-        <v>327605</v>
+        <v>341994.00000000006</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B32" s="5" t="str">
         <f>[1]!rswords(E30)</f>
-        <v>Rupees Three Lakh(s) Twenty Seven Thousand Six Hundred Five Only</v>
+        <v>Rupees Three Lakh(s) Forty One Thousand Nine Hundred Ninety Four Only</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
